--- a/biology/Microbiologie/Methylobacterium_radiotolerans/Methylobacterium_radiotolerans.xlsx
+++ b/biology/Microbiologie/Methylobacterium_radiotolerans/Methylobacterium_radiotolerans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Methylobacterium radiotolerans est une bactérie Gram négatif aérobie en forme de bâtonnet. La couleur rose très caractéristique de ses colonies est due aux caroténoïdes qu’elle produit. Elle produit également de la bactériochlorophylle. Le genre Methylobacterium est divisé en deux groupes selon l’activité métabolique basse ou élevée des espèces. M. radiotolerans appartient au groupe à activité métabolique élevée.
 </t>
